--- a/notebooks/COL3A1/input/PMID_28258187.xlsx
+++ b/notebooks/COL3A1/input/PMID_28258187.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z184215\Documents\H_schijf_Lex\Projecten\HPO_clustering_Peter\Scripts\c2s2-clin\data\COL3A1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/COL3A1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A40E2F1-D77E-4BAB-A9F6-84486CBD3F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A569DD-46C2-5B49-BFE0-533321040BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6C090F4-214E-406F-A22E-A6BCAA847E37}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20840" xr2:uid="{E6C090F4-214E-406F-A22E-A6BCAA847E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
   <si>
     <t>Clinical features</t>
   </si>
@@ -373,6 +373,21 @@
   </si>
   <si>
     <t xml:space="preserve"> c.479dupT</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>Patient 1</t>
+  </si>
+  <si>
+    <t>Patient 3</t>
+  </si>
+  <si>
+    <t>Patient 4</t>
+  </si>
+  <si>
+    <t>Patient 2</t>
   </si>
 </sst>
 </file>
@@ -440,12 +455,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,7 +476,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -757,15 +772,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC42E69-BAF9-480D-BE8F-260DAFEEA838}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,60 +797,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>108</v>
@@ -844,41 +859,41 @@
         <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="239" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -887,15 +902,15 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="256" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -904,15 +919,15 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="222" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -921,243 +936,243 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="171" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:5" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:5" ht="205" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:5" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="120" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="188" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>65</v>
@@ -1172,207 +1187,224 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="222" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="171" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:5" ht="171" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>95</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>97</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>98</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>98</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>99</v>
       </c>
     </row>

--- a/notebooks/COL3A1/input/PMID_28258187.xlsx
+++ b/notebooks/COL3A1/input/PMID_28258187.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/COL3A1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A569DD-46C2-5B49-BFE0-533321040BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD7BD7-B0C1-404D-A781-70995F22529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20840" xr2:uid="{E6C090F4-214E-406F-A22E-A6BCAA847E37}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20600" xr2:uid="{E6C090F4-214E-406F-A22E-A6BCAA847E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
   <si>
     <t>Clinical features</t>
   </si>
@@ -363,18 +363,12 @@
     <t>c.145C&gt;G</t>
   </si>
   <si>
-    <t xml:space="preserve"> c.3851G&gt;A</t>
-  </si>
-  <si>
     <t>c.479dupT</t>
   </si>
   <si>
     <t>c.1786C&gt;T</t>
   </si>
   <si>
-    <t xml:space="preserve"> c.479dupT</t>
-  </si>
-  <si>
     <t>patient_id</t>
   </si>
   <si>
@@ -388,6 +382,9 @@
   </si>
   <si>
     <t>Patient 2</t>
+  </si>
+  <si>
+    <t>c.3851G&gt;A</t>
   </si>
 </sst>
 </file>
@@ -774,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC42E69-BAF9-480D-BE8F-260DAFEEA838}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -799,19 +796,19 @@
     </row>
     <row r="2" spans="1:5" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -859,10 +856,10 @@
         <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -876,10 +873,10 @@
         <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="52" thickBot="1" x14ac:dyDescent="0.25">
